--- a/mosqito/tests/roughness/data/Test_fc_4000.xlsx
+++ b/mosqito/tests/roughness/data/Test_fc_4000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQITo_oo\mosqito\tests\roughness\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQIToGUI\mosqito\tests\roughness\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92987EBB-43CE-4EB4-8139-4A327EFFA8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC6AF67-6EDC-4778-B52E-C9427D93D606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB2ADE93-4782-484E-A79D-D4E6B575D875}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">Roughness calculation according to Daniel and Weber method </t>
   </si>
@@ -51,130 +51,172 @@
     <t>R</t>
   </si>
   <si>
-    <t>15.530166</t>
-  </si>
-  <si>
-    <t>22.248001</t>
-  </si>
-  <si>
-    <t>29.032803</t>
-  </si>
-  <si>
-    <t>36.759804</t>
-  </si>
-  <si>
-    <t>43.932583</t>
-  </si>
-  <si>
-    <t>47.4362</t>
-  </si>
-  <si>
-    <t>51.78351</t>
-  </si>
-  <si>
-    <t>54.398357</t>
-  </si>
-  <si>
-    <t>56.521927</t>
-  </si>
-  <si>
-    <t>59.698368</t>
-  </si>
-  <si>
-    <t>64.44473</t>
-  </si>
-  <si>
-    <t>68.247986</t>
-  </si>
-  <si>
-    <t>71.68033</t>
-  </si>
-  <si>
-    <t>76.31692</t>
-  </si>
-  <si>
-    <t>81.9177</t>
-  </si>
-  <si>
-    <t>85.562874</t>
-  </si>
-  <si>
-    <t>88.879105</t>
-  </si>
-  <si>
-    <t>96.41964</t>
-  </si>
-  <si>
-    <t>100.693855</t>
-  </si>
-  <si>
-    <t>115.63115</t>
-  </si>
-  <si>
-    <t>294.5396</t>
-  </si>
-  <si>
-    <t>0.110146634</t>
-  </si>
-  <si>
-    <t>0.18577282</t>
-  </si>
-  <si>
-    <t>0.27380994</t>
-  </si>
-  <si>
-    <t>0.38512465</t>
-  </si>
-  <si>
-    <t>0.48521093</t>
-  </si>
-  <si>
-    <t>0.52836967</t>
-  </si>
-  <si>
-    <t>0.581726</t>
-  </si>
-  <si>
-    <t>0.6045137</t>
-  </si>
-  <si>
-    <t>0.6196158</t>
-  </si>
-  <si>
-    <t>0.6368079</t>
-  </si>
-  <si>
-    <t>0.6544202</t>
-  </si>
-  <si>
-    <t>0.66153014</t>
-  </si>
-  <si>
-    <t>0.6541425</t>
-  </si>
-  <si>
-    <t>0.6414714</t>
-  </si>
-  <si>
-    <t>0.6221224</t>
-  </si>
-  <si>
-    <t>0.6034227</t>
-  </si>
-  <si>
-    <t>0.57728016</t>
-  </si>
-  <si>
-    <t>0.5182279</t>
-  </si>
-  <si>
-    <t>0.48227614</t>
-  </si>
-  <si>
-    <t>0.38976666</t>
-  </si>
-  <si>
-    <t>0.07732382</t>
+    <t>15.561241</t>
+  </si>
+  <si>
+    <t>22.401348</t>
+  </si>
+  <si>
+    <t>29.266758</t>
+  </si>
+  <si>
+    <t>36.86032</t>
+  </si>
+  <si>
+    <t>38.84244</t>
+  </si>
+  <si>
+    <t>43.589268</t>
+  </si>
+  <si>
+    <t>47.646236</t>
+  </si>
+  <si>
+    <t>51.401146</t>
+  </si>
+  <si>
+    <t>56.619133</t>
+  </si>
+  <si>
+    <t>59.81015</t>
+  </si>
+  <si>
+    <t>63.843525</t>
+  </si>
+  <si>
+    <t>67.08531</t>
+  </si>
+  <si>
+    <t>70.85759</t>
+  </si>
+  <si>
+    <t>74.06288</t>
+  </si>
+  <si>
+    <t>77.41061</t>
+  </si>
+  <si>
+    <t>81.33141</t>
+  </si>
+  <si>
+    <t>87.916466</t>
+  </si>
+  <si>
+    <t>97.7758</t>
+  </si>
+  <si>
+    <t>100.33316</t>
+  </si>
+  <si>
+    <t>115.681206</t>
+  </si>
+  <si>
+    <t>119.01259</t>
+  </si>
+  <si>
+    <t>134.40422</t>
+  </si>
+  <si>
+    <t>148.2887</t>
+  </si>
+  <si>
+    <t>177.72102</t>
+  </si>
+  <si>
+    <t>205.42125</t>
+  </si>
+  <si>
+    <t>235.5931</t>
+  </si>
+  <si>
+    <t>272.31946</t>
+  </si>
+  <si>
+    <t>296.5826</t>
+  </si>
+  <si>
+    <t>0.109677784</t>
+  </si>
+  <si>
+    <t>0.18588823</t>
+  </si>
+  <si>
+    <t>0.27217966</t>
+  </si>
+  <si>
+    <t>0.3822299</t>
+  </si>
+  <si>
+    <t>0.40800852</t>
+  </si>
+  <si>
+    <t>0.4784683</t>
+  </si>
+  <si>
+    <t>0.52834743</t>
+  </si>
+  <si>
+    <t>0.5683734</t>
+  </si>
+  <si>
+    <t>0.6097778</t>
+  </si>
+  <si>
+    <t>0.6274577</t>
+  </si>
+  <si>
+    <t>0.6473149</t>
+  </si>
+  <si>
+    <t>0.6522843</t>
+  </si>
+  <si>
+    <t>0.6521323</t>
+  </si>
+  <si>
+    <t>0.6452131</t>
+  </si>
+  <si>
+    <t>0.6333704</t>
+  </si>
+  <si>
+    <t>0.62010473</t>
+  </si>
+  <si>
+    <t>0.57756937</t>
+  </si>
+  <si>
+    <t>0.51043147</t>
+  </si>
+  <si>
+    <t>0.48305747</t>
+  </si>
+  <si>
+    <t>0.38639748</t>
+  </si>
+  <si>
+    <t>0.36280885</t>
+  </si>
+  <si>
+    <t>0.29872113</t>
+  </si>
+  <si>
+    <t>0.2538336</t>
+  </si>
+  <si>
+    <t>0.18619592</t>
+  </si>
+  <si>
+    <t>0.1454662</t>
+  </si>
+  <si>
+    <t>0.11394783</t>
+  </si>
+  <si>
+    <t>0.089489736</t>
+  </si>
+  <si>
+    <t>0.07725139</t>
   </si>
 </sst>
 </file>
@@ -532,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2FC60-5398-4D29-9BEA-9D4D2BB0FC7E}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -564,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -572,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -580,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -588,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -596,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -604,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -612,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -620,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -628,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -636,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -644,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -652,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -660,7 +702,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -668,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -676,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -684,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -692,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -700,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -708,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -716,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -724,7 +766,63 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
